--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worbs\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587AE2EF-7E21-452A-B77A-402F6E7AC942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE91718-B545-47BD-B5A6-95AFA667B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1349">
   <si>
     <t>food</t>
   </si>
@@ -4661,6 +4661,69 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>대구 북구 복현동 241-1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신성로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 60</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -4707,12 +4770,9 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>극우동 1080</t>
+      <t>국우동 1080</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구 북구 복현동 241-1</t>
   </si>
 </sst>
 </file>
@@ -5272,8 +5332,8 @@
   </sheetPr>
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -5461,7 +5521,7 @@
         <v>1267</v>
       </c>
       <c r="T4" s="2">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -5499,7 +5559,7 @@
         <v>1268</v>
       </c>
       <c r="T5" s="2">
-        <v>900</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -5619,7 +5679,7 @@
         <v>1272</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>33</v>
@@ -5830,12 +5890,12 @@
       <c r="T14" s="17"/>
       <c r="U14" s="17"/>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" ht="19.2">
       <c r="A15" s="1" t="s">
         <v>1274</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>1299</v>
+      <c r="B15" s="15" t="s">
+        <v>1347</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>57</v>
@@ -6015,7 +6075,7 @@
         <v>1276</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1305</v>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\worbs\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE91718-B545-47BD-B5A6-95AFA667B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0AED4E-2A64-43C7-AED5-82A48CB882A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5332,8 +5332,8 @@
   </sheetPr>
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -5479,7 +5479,7 @@
         <v>1266</v>
       </c>
       <c r="T3" s="2">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
@@ -5521,7 +5521,7 @@
         <v>1267</v>
       </c>
       <c r="T4" s="2">
-        <v>500</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -5559,7 +5559,7 @@
         <v>1268</v>
       </c>
       <c r="T5" s="2">
-        <v>850</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="6" spans="1:24">

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EnozAce\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\BG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DBE81EB-6BF1-402D-8B36-36F6E389904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D876D59D-A3CA-4157-A185-4982FD517E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="960" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="1" r:id="rId1"/>
@@ -4291,9 +4291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대구 북구 복현로 50</t>
-  </si>
-  <si>
     <t>대구 북구 호암로 40</t>
   </si>
   <si>
@@ -4329,17 +4326,11 @@
     <t>대구 북구 침산남로 90</t>
   </si>
   <si>
-    <t>대구 북구 학정동로 10</t>
-  </si>
-  <si>
     <t>505동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>대구 북구 학정동로 40</t>
-  </si>
-  <si>
-    <t>대구 북구 학남로 10</t>
   </si>
   <si>
     <t>대구 북구 학남로 60</t>
@@ -4655,12 +4646,21 @@
     <t>https://www.phswcoding.co.kr/Course/CourseList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>대구 북구 복현동 241-1</t>
+  </si>
+  <si>
+    <t>대구 북구 국우동 1080</t>
+  </si>
+  <si>
+    <t>대구 북구 학정동 980</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4753,12 +4753,6 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4968,7 +4962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5331,29 +5325,29 @@
   </sheetPr>
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="17.25" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="48.625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="48.59765625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="0" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.69921875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="2"/>
-    <col min="11" max="12" width="10.625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="8.75"/>
+    <col min="11" max="12" width="10.59765625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875"/>
     <col min="14" max="14" width="9" style="2"/>
-    <col min="15" max="16" width="10.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.75"/>
+    <col min="15" max="16" width="10.59765625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.69921875"/>
     <col min="18" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="20.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="48.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5520,7 +5514,7 @@
         <v>1226</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
@@ -5886,7 +5880,7 @@
       <c r="T17" s="25"/>
       <c r="U17" s="26"/>
     </row>
-    <row r="18" spans="1:21" ht="17.25">
+    <row r="18" spans="1:21" ht="19.2">
       <c r="A18" s="2"/>
       <c r="B18" s="16"/>
       <c r="C18" s="2"/>
@@ -5994,7 +5988,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="17.25">
+    <row r="22" spans="1:21" ht="19.2">
       <c r="A22" s="2"/>
       <c r="B22" s="17"/>
       <c r="C22" s="2"/>
@@ -10994,20 +10988,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1EB988-2ED1-436F-8BF0-F3686DC619B0}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="16" width="0" style="2" hidden="1" customWidth="1"/>
     <col min="17" max="18" width="9" style="2"/>
-    <col min="19" max="19" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="48.3984375" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -11016,7 +11010,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -11025,10 +11019,10 @@
       <c r="G1"/>
       <c r="H1"/>
       <c r="S1" s="2" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -11046,10 +11040,10 @@
       <c r="G2"/>
       <c r="H2"/>
       <c r="S2" s="2" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -11160,7 +11154,7 @@
         <v>1269</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1289</v>
+        <v>1344</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -11171,7 +11165,7 @@
         <v>1269</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
@@ -11182,7 +11176,7 @@
         <v>1270</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>42</v>
@@ -11193,10 +11187,10 @@
         <v>1270</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>1291</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>1292</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -11204,7 +11198,7 @@
         <v>1270</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>23</v>
@@ -11215,7 +11209,7 @@
         <v>1271</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>37</v>
@@ -11226,7 +11220,7 @@
         <v>1271</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
@@ -11237,7 +11231,7 @@
         <v>1271</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -11248,18 +11242,18 @@
         <v>1272</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="17.25">
+    <row r="21" spans="1:3" ht="19.2">
       <c r="A21" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>55</v>
@@ -11270,7 +11264,7 @@
         <v>1272</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>13</v>
@@ -11281,10 +11275,10 @@
         <v>1273</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1301</v>
+        <v>1345</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11292,7 +11286,7 @@
         <v>1273</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>1279</v>
@@ -11303,7 +11297,7 @@
         <v>1273</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1304</v>
+        <v>1346</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>31</v>
@@ -11314,7 +11308,7 @@
         <v>1274</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>30</v>
@@ -11325,7 +11319,7 @@
         <v>1274</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>1288</v>
@@ -11336,7 +11330,7 @@
         <v>1274</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>16</v>
@@ -11347,10 +11341,10 @@
         <v>1275</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -11358,7 +11352,7 @@
         <v>1275</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>1279</v>
@@ -11369,7 +11363,7 @@
         <v>1275</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>1262</v>
@@ -11393,14 +11387,14 @@
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="16" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="48.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -11408,7 +11402,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -11469,7 +11463,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17.25">
+    <row r="7" spans="1:3" ht="19.2">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -11513,7 +11507,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17.25">
+    <row r="11" spans="1:3" ht="19.2">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -11535,7 +11529,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17.25">
+    <row r="13" spans="1:3" ht="19.2">
       <c r="A13" s="7" t="s">
         <v>5</v>
       </c>
@@ -11601,10 +11595,10 @@
         <v>38</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -11618,10 +11612,10 @@
         <v>39</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -11725,10 +11719,10 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="7" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
@@ -11736,10 +11730,10 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="7" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>1288</v>
@@ -11747,10 +11741,10 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="7" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>12</v>
@@ -11758,10 +11752,10 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>42</v>
@@ -11769,7 +11763,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>17</v>
@@ -11780,10 +11774,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>13</v>
@@ -11791,10 +11785,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>12</v>
@@ -11802,43 +11796,43 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19.2">
       <c r="A38" s="7" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>16</v>
@@ -11846,10 +11840,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>12</v>
@@ -11857,32 +11851,32 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19.2">
       <c r="A42" s="7" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="7" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>12</v>
@@ -11890,10 +11884,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
@@ -11901,10 +11895,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>42</v>
@@ -11912,10 +11906,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="7" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>39</v>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D876D59D-A3CA-4157-A185-4982FD517E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26558B8-30E2-48D7-9C75-6E4E892255D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="960" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5616" yWindow="1368" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1343">
   <si>
     <t>food</t>
   </si>
@@ -4218,10 +4218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대구동평초등학교</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대구달산초등학교</t>
   </si>
   <si>
@@ -4247,15 +4243,6 @@
   </si>
   <si>
     <t>대구강북초등학교</t>
-  </si>
-  <si>
-    <t>대구 북구 대천로 101</t>
-  </si>
-  <si>
-    <t>대구 북구 동천로24길 12</t>
-  </si>
-  <si>
-    <t>대구 북구 구암서로 22</t>
   </si>
   <si>
     <t>203동</t>
@@ -5325,8 +5312,8 @@
   </sheetPr>
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView showGridLines="0" topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -5381,7 +5368,7 @@
         <v>1263</v>
       </c>
       <c r="T1" s="2">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="V1"/>
       <c r="W1"/>
@@ -5417,7 +5404,7 @@
         <v>1264</v>
       </c>
       <c r="T2" s="2">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
@@ -5454,7 +5441,7 @@
         <v>1265</v>
       </c>
       <c r="T3" s="2">
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
@@ -5514,7 +5501,7 @@
         <v>1226</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
@@ -10986,10 +10973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1EB988-2ED1-436F-8BF0-F3686DC619B0}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -11010,7 +10997,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -11019,10 +11006,10 @@
       <c r="G1"/>
       <c r="H1"/>
       <c r="S1" s="2" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -11033,17 +11020,17 @@
         <v>1276</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="S2" s="2" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -11054,7 +11041,7 @@
         <v>1277</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -11069,7 +11056,7 @@
         <v>1278</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>1279</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -11077,10 +11064,10 @@
         <v>1267</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>1280</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -11091,7 +11078,7 @@
         <v>1281</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -11102,7 +11089,7 @@
         <v>1282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -11113,7 +11100,7 @@
         <v>1283</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1284</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -11121,10 +11108,10 @@
         <v>1268</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>1285</v>
+        <v>1340</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>1279</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -11132,10 +11119,10 @@
         <v>1268</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1288</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -11143,7 +11130,7 @@
         <v>1269</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>42</v>
@@ -11154,10 +11141,10 @@
         <v>1269</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>1344</v>
+        <v>1286</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -11165,10 +11152,10 @@
         <v>1269</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -11176,10 +11163,10 @@
         <v>1270</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -11187,10 +11174,10 @@
         <v>1270</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>1291</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -11201,7 +11188,7 @@
         <v>1292</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -11209,18 +11196,18 @@
         <v>1271</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19.2">
       <c r="A18" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="B18" s="11" t="s">
-        <v>1295</v>
+      <c r="B18" s="12" t="s">
+        <v>1294</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
@@ -11231,7 +11218,7 @@
         <v>1271</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>13</v>
@@ -11242,21 +11229,21 @@
         <v>1272</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>1297</v>
+        <v>1341</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.2">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>1272</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>1298</v>
+      <c r="B21" s="11" t="s">
+        <v>1297</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -11264,10 +11251,10 @@
         <v>1272</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>1299</v>
+        <v>1342</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -11275,10 +11262,10 @@
         <v>1273</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>1345</v>
+        <v>1298</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>1300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -11286,10 +11273,10 @@
         <v>1273</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>1279</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -11297,10 +11284,10 @@
         <v>1273</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>1346</v>
+        <v>1299</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -11308,10 +11295,10 @@
         <v>1274</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>30</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -11319,10 +11306,10 @@
         <v>1274</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>1288</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -11333,39 +11320,6 @@
         <v>1303</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>1304</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>1306</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C31" s="1" t="s">
         <v>1262</v>
       </c>
     </row>
@@ -11402,7 +11356,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>10</v>
@@ -11595,10 +11549,10 @@
         <v>38</v>
       </c>
       <c r="S18" s="2" t="s">
+        <v>1334</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>1338</v>
-      </c>
-      <c r="T18" s="5" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -11612,10 +11566,10 @@
         <v>39</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="T19" s="10" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -11719,10 +11673,10 @@
     </row>
     <row r="29" spans="1:20">
       <c r="A29" s="7" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>12</v>
@@ -11730,21 +11684,21 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="7" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="7" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>12</v>
@@ -11752,10 +11706,10 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="7" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>42</v>
@@ -11763,7 +11717,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="7" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>17</v>
@@ -11774,10 +11728,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>13</v>
@@ -11785,10 +11739,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>12</v>
@@ -11796,43 +11750,43 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="7" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19.2">
       <c r="A38" s="7" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="7" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>16</v>
@@ -11840,10 +11794,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="7" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>12</v>
@@ -11851,32 +11805,32 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="7" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19.2">
       <c r="A42" s="7" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="7" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>12</v>
@@ -11884,10 +11838,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="7" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>13</v>
@@ -11895,10 +11849,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="7" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>42</v>
@@ -11906,10 +11860,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="7" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>39</v>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26558B8-30E2-48D7-9C75-6E4E892255D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADC749A-0A45-4BD7-BF82-4F61FFEAFD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5616" yWindow="1368" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5616" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="정보" sheetId="1" r:id="rId1"/>
@@ -5312,7 +5312,7 @@
   </sheetPr>
   <dimension ref="A1:X501"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
@@ -5404,7 +5404,7 @@
         <v>1264</v>
       </c>
       <c r="T2" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
@@ -5441,7 +5441,7 @@
         <v>1265</v>
       </c>
       <c r="T3" s="2">
-        <v>30</v>
+        <v>600</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
@@ -10975,8 +10975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E1EB988-2ED1-436F-8BF0-F3686DC619B0}">
   <dimension ref="A1:T28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>

--- a/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
+++ b/파이썬/코딩교실 매크로/1.코딩교실준비/2.추가인원 수강신청/1.추가인원 가입 수강신청/추가인원 가입 수강신청.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJG\Documents\GitHub\enoz_kjg\파이썬\코딩교실 매크로\1.코딩교실준비\2.추가인원 수강신청\1.추가인원 가입 수강신청\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADC749A-0A45-4BD7-BF82-4F61FFEAFD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B91ACE7-C3BE-4040-8B2D-5A1CF4526F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5616" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5313,7 +5313,7 @@
   <dimension ref="A1:X501"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -5368,7 +5368,7 @@
         <v>1263</v>
       </c>
       <c r="T1" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="V1"/>
       <c r="W1"/>
@@ -5404,7 +5404,7 @@
         <v>1264</v>
       </c>
       <c r="T2" s="2">
-        <v>450</v>
+        <v>30</v>
       </c>
       <c r="U2"/>
       <c r="V2"/>
@@ -5441,7 +5441,7 @@
         <v>1265</v>
       </c>
       <c r="T3" s="2">
-        <v>600</v>
+        <v>50</v>
       </c>
       <c r="U3"/>
       <c r="V3"/>
